--- a/results.xlsx
+++ b/results.xlsx
@@ -885,12 +885,12 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Syntax Error</t>
+          <t>No Syntax Error</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Syntax Error</t>
+          <t>No Syntax Error</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
@@ -900,7 +900,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Expected one of (, IDENTIFIER, PINT LIT, FLEET LIT, found DOFFY LIT in line 1</t>
+          <t>Syntax analysis successful</t>
         </is>
       </c>
     </row>
@@ -1089,7 +1089,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Expected one of (, USOPP, REAL, DOFFY LIT, [, PINT LIT, FLEET LIT, IDENTIFIER, LEN, LOAD, found ; in line 1</t>
+          <t>Expected one of PINT LIT, FLEET LIT, DOFFY LIT, USOPP, REAL, IDENTIFIER, (, [, found ; in line 1</t>
         </is>
       </c>
     </row>
@@ -1231,7 +1231,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>onboard  captain(){     theo (5 &gt; a){        fire("5 is greater than a");  } altheo (5 &lt; a) {        fire("5 is less than a");  }  }  offboard</t>
+          <t>onboard captain(){    theo (5 &gt; a){       fire("5 is greater than a"); } altheo (5 &lt; a) {       fire("5 is less than a"); } } offboard</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1413,7 +1413,7 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Expected one of (, USOPP, REAL, DOFFY LIT, [, PINT LIT, FLEET LIT, IDENTIFIER, LEN, LOAD, found ; in line 1</t>
+          <t>Expected one of PINT LIT, FLEET LIT, DOFFY LIT, USOPP, REAL, IDENTIFIER, (, [, found ; in line 1</t>
         </is>
       </c>
     </row>
@@ -1467,7 +1467,7 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Expected one of (, USOPP, REAL, DOFFY LIT, [, PINT LIT, FLEET LIT, IDENTIFIER, LEN, LOAD, found { in line 1</t>
+          <t>Expected one of PINT LIT, FLEET LIT, DOFFY LIT, USOPP, REAL, IDENTIFIER, (, [, found { in line 1</t>
         </is>
       </c>
     </row>
@@ -1521,7 +1521,7 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Expected one of ), found PINT in line 1</t>
+          <t>Expected one of =, found ( in line 1</t>
         </is>
       </c>
     </row>
@@ -1538,17 +1538,17 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>No Syntax Error</t>
-        </is>
-      </c>
-      <c r="D41" s="2" t="inlineStr">
-        <is>
-          <t>Pass</t>
+          <t>Syntax Error</t>
+        </is>
+      </c>
+      <c r="D41" s="3" t="inlineStr">
+        <is>
+          <t>Fail</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Syntax analysis successful</t>
+          <t>Expected one of +, -, *, DIV, %, **, //, found ; in line 1</t>
         </is>
       </c>
     </row>
@@ -1629,7 +1629,7 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Expected one of (, USOPP, REAL, DOFFY LIT, [, PINT LIT, FLEET LIT, IDENTIFIER, LEN, LOAD, found + in line 1</t>
+          <t>Expected one of PINT LIT, FLEET LIT, DOFFY LIT, REAL, USOPP, IDENTIFIER, (, LEN, LOAD, [, found + in line 1</t>
         </is>
       </c>
     </row>
@@ -1737,7 +1737,7 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Expected one of ++, --, found = in line 1</t>
+          <t>Expected one of [, ,, ;, ], :, +, -, *, DIV, %, **, //, ), &lt;, &gt;, &lt;=, &gt;=, ==, !=, ORO, AND, found = in line 1</t>
         </is>
       </c>
     </row>
@@ -1965,12 +1965,12 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Syntax Error</t>
+          <t>No Syntax Error</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Syntax Error</t>
+          <t>No Syntax Error</t>
         </is>
       </c>
       <c r="D57" s="2" t="inlineStr">
@@ -1980,7 +1980,7 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Expected one of ++, --, found = in line 1</t>
+          <t>Syntax analysis successful</t>
         </is>
       </c>
     </row>
@@ -2159,17 +2159,17 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>No Syntax Error</t>
-        </is>
-      </c>
-      <c r="D64" s="3" t="inlineStr">
-        <is>
-          <t>Fail</t>
+          <t>Syntax Error</t>
+        </is>
+      </c>
+      <c r="D64" s="2" t="inlineStr">
+        <is>
+          <t>Pass</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Syntax analysis successful</t>
+          <t>Expected one of =, found == in line 1</t>
         </is>
       </c>
     </row>
@@ -2385,7 +2385,7 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Expected one of ), found ; in line 1</t>
+          <t>Expected one of ), +, -, *, DIV, %, **, //, found ; in line 1</t>
         </is>
       </c>
     </row>
@@ -2466,7 +2466,7 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Expected one of &lt;, &gt;, &lt;=, &gt;=, =, !=, found ) in line 1</t>
+          <t>Expected one of [, (, +, -, *, DIV, %, **, //, AND, ORO, &lt;, &gt;, &lt;=, &gt;=, ==, !=, found ) in line 1</t>
         </is>
       </c>
     </row>
@@ -2510,17 +2510,17 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>No Syntax Error</t>
-        </is>
-      </c>
-      <c r="D77" s="3" t="inlineStr">
-        <is>
-          <t>Fail</t>
+          <t>Syntax Error</t>
+        </is>
+      </c>
+      <c r="D77" s="2" t="inlineStr">
+        <is>
+          <t>Pass</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Syntax analysis successful</t>
+          <t>Expected one of =, found == in line 1</t>
         </is>
       </c>
     </row>
@@ -2554,7 +2554,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t xml:space="preserve">onboard           captain() {                    doffy greet1 = "Kamsami!";                    doffy greet2 = "Arigathanks!";      load("may laman");  }  offboard </t>
+          <t xml:space="preserve">onboard          captain() {                   doffy greet1 = "Kamsami!";                   doffy greet2 = "Arigathanks!";                   load("may laman"); } offboard </t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -2564,17 +2564,17 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>No Syntax Error</t>
-        </is>
-      </c>
-      <c r="D79" s="2" t="inlineStr">
-        <is>
-          <t>Pass</t>
+          <t>Syntax Error</t>
+        </is>
+      </c>
+      <c r="D79" s="3" t="inlineStr">
+        <is>
+          <t>Fail</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Syntax analysis successful</t>
+          <t>Expected one of }, found ; in line 1</t>
         </is>
       </c>
     </row>
@@ -2682,7 +2682,7 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Expected one of ), found IDENTIFIER in line 1</t>
+          <t>Expected one of ), +, -, *, DIV, %, **, //, found IDENTIFIER in line 1</t>
         </is>
       </c>
     </row>
@@ -2699,17 +2699,17 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Syntax Error</t>
-        </is>
-      </c>
-      <c r="D84" s="3" t="inlineStr">
-        <is>
-          <t>Fail</t>
+          <t>No Syntax Error</t>
+        </is>
+      </c>
+      <c r="D84" s="2" t="inlineStr">
+        <is>
+          <t>Pass</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>Lexical Error: ( (line 1)</t>
+          <t>Syntax analysis successful</t>
         </is>
       </c>
     </row>
@@ -2915,17 +2915,17 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>No Syntax Error</t>
-        </is>
-      </c>
-      <c r="D92" s="2" t="inlineStr">
-        <is>
-          <t>Pass</t>
+          <t>Syntax Error</t>
+        </is>
+      </c>
+      <c r="D92" s="3" t="inlineStr">
+        <is>
+          <t>Fail</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>Syntax analysis successful</t>
+          <t>Expected one of +, -, *, DIV, %, **, //, ;, found ] in line 1</t>
         </is>
       </c>
     </row>
@@ -2969,17 +2969,17 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>No Syntax Error</t>
-        </is>
-      </c>
-      <c r="D94" s="2" t="inlineStr">
-        <is>
-          <t>Pass</t>
+          <t>Syntax Error</t>
+        </is>
+      </c>
+      <c r="D94" s="3" t="inlineStr">
+        <is>
+          <t>Fail</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>Syntax analysis successful</t>
+          <t>Expected one of +, -, *, DIV, %, **, //, ;, found ] in line 1</t>
         </is>
       </c>
     </row>
@@ -3018,12 +3018,12 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Syntax Error</t>
+          <t>No Syntax Error</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Syntax Error</t>
+          <t>No Syntax Error</t>
         </is>
       </c>
       <c r="D96" s="2" t="inlineStr">
@@ -3033,7 +3033,7 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>Expected one of (, IDENTIFIER, PINT LIT, FLEET LIT, found DOFFY LIT in line 1</t>
+          <t>Syntax analysis successful</t>
         </is>
       </c>
     </row>
@@ -3087,7 +3087,7 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>Expected one of ,, ;, +, -, *, DIV, %, **, //, :, ], found &lt;= in line 1</t>
+          <t>Expected one of ), +, -, *, DIV, %, **, //, found &lt;= in line 1</t>
         </is>
       </c>
     </row>
@@ -3141,7 +3141,7 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>Expected one of ), found + in line 1</t>
+          <t>Expected one of (, PINT LIT, FLEET LIT, DOFFY LIT, REAL, USOPP, IDENTIFIER, LEN, LOAD, [, found // in line 1</t>
         </is>
       </c>
     </row>
@@ -3168,7 +3168,7 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>Expected one of (, IDENTIFIER, PINT LIT, FLEET LIT, found ++ in line 1</t>
+          <t>Expected one of (, PINT LIT, FLEET LIT, DOFFY LIT, REAL, USOPP, IDENTIFIER, LEN, LOAD, [, found ++ in line 1</t>
         </is>
       </c>
     </row>
@@ -3234,12 +3234,12 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Syntax Error</t>
+          <t>No Syntax Error</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>Syntax Error</t>
+          <t>No Syntax Error</t>
         </is>
       </c>
       <c r="D104" s="2" t="inlineStr">
@@ -3249,7 +3249,7 @@
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>Expected one of ++, --, found = in line 1</t>
+          <t>Syntax analysis successful</t>
         </is>
       </c>
     </row>
@@ -3357,7 +3357,7 @@
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>Expected one of CHEST, DAGGER, found } in line 1</t>
+          <t>Expected one of LEAK, DAGGER, CHEST, found } in line 1</t>
         </is>
       </c>
     </row>
@@ -3411,7 +3411,7 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>Expected one of (, USOPP, REAL, DOFFY LIT, [, PINT LIT, FLEET LIT, IDENTIFIER, LEN, LOAD, found : in line 1</t>
+          <t>Expected one of PINT LIT, FLEET LIT, DOFFY LIT, REAL, USOPP, IDENTIFIER, (, LEN, LOAD, [, found : in line 1</t>
         </is>
       </c>
     </row>
@@ -3519,7 +3519,7 @@
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>Expected one of +, -, *, DIV, %, **, //, found PINT LIT in line 1</t>
+          <t>Expected one of [, (, +, -, *, DIV, %, **, //, AND, ORO, &lt;, &gt;, &lt;=, &gt;=, ==, !=, found PINT LIT in line 1</t>
         </is>
       </c>
     </row>
@@ -3553,7 +3553,7 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>onboard         captain() {             concatIntegers();       }    doffy concatIntegers() {      pint num1 = load("Enter first integer: ");      pint num2 = load("Enter second integer: ");      fire("Concatenated Integers: ");      fire(num1);      fire(num2);    }  offboard</t>
+          <t>onboard       captain() {            concatIntegers();      }  doffy concatIntegers() {     pint num1 = load("Enter first integer: ");     pint num2 = load("Enter second integer: ");     fire("Concatenated Integers: ");     fire(num1);     fire(num2);   } offboard</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
@@ -3563,17 +3563,17 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>No Syntax Error</t>
-        </is>
-      </c>
-      <c r="D116" s="2" t="inlineStr">
-        <is>
-          <t>Pass</t>
+          <t>Syntax Error</t>
+        </is>
+      </c>
+      <c r="D116" s="3" t="inlineStr">
+        <is>
+          <t>Fail</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>Syntax analysis successful</t>
+          <t>Expected one of =, found ( in line 1</t>
         </is>
       </c>
     </row>
@@ -3924,7 +3924,7 @@
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>Expected one of ,, ;, found CAPTAIN in line 1</t>
+          <t>Expected one of +, -, *, DIV, %, **, //, ;, found CAPTAIN in line 1</t>
         </is>
       </c>
     </row>
@@ -4059,7 +4059,7 @@
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>Expected one of ,, ;, +, -, *, DIV, %, **, //, :, ], found CAPTAIN in line 1</t>
+          <t>Expected one of +, -, *, DIV, %, **, //, ;, found CAPTAIN in line 1</t>
         </is>
       </c>
     </row>
@@ -4356,7 +4356,7 @@
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>Expected one of ++, --, found = in line 1</t>
+          <t>Expected one of IDENTIFIER, PINT LIT, FLEET LIT, DOFFY LIT, NAY, (, LEN, LOAD, [, REAL, USOPP, found PINT in line 1</t>
         </is>
       </c>
     </row>
@@ -4395,12 +4395,12 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Syntax Error</t>
+          <t>No Syntax Error</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>Syntax Error</t>
+          <t>No Syntax Error</t>
         </is>
       </c>
       <c r="D147" s="2" t="inlineStr">
@@ -4410,7 +4410,7 @@
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>Expected one of DOFFY LIT, (, IDENTIFIER, PINT LIT, FLEET LIT, LEN, NAY, found REAL in line 1</t>
+          <t>Syntax analysis successful</t>
         </is>
       </c>
     </row>
@@ -4437,7 +4437,7 @@
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>Expected one of ,, ;, found ] in line 1</t>
+          <t>Expected one of ,, ;, +, -, *, DIV, %, **, //, found ] in line 1</t>
         </is>
       </c>
     </row>
@@ -4643,17 +4643,17 @@
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>No Syntax Error</t>
-        </is>
-      </c>
-      <c r="D156" s="2" t="inlineStr">
-        <is>
-          <t>Pass</t>
+          <t>Syntax Error</t>
+        </is>
+      </c>
+      <c r="D156" s="3" t="inlineStr">
+        <is>
+          <t>Fail</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>Syntax analysis successful</t>
+          <t>Expected one of }, found ; in line 1</t>
         </is>
       </c>
     </row>
@@ -4665,12 +4665,12 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Syntax Error</t>
+          <t>No Syntax Error</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>Syntax Error</t>
+          <t>No Syntax Error</t>
         </is>
       </c>
       <c r="D157" s="2" t="inlineStr">
@@ -4680,7 +4680,7 @@
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>Expected one of =, found ( in line 1</t>
+          <t>Syntax analysis successful</t>
         </is>
       </c>
     </row>
@@ -4842,7 +4842,7 @@
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>Expected one of (, USOPP, REAL, DOFFY LIT, [, PINT LIT, FLEET LIT, IDENTIFIER, LEN, LOAD, found FIRE in line 1</t>
+          <t>Expected one of PINT LIT, FLEET LIT, DOFFY LIT, REAL, USOPP, IDENTIFIER, (, LEN, LOAD, [, found FIRE in line 1</t>
         </is>
       </c>
     </row>
@@ -4950,7 +4950,7 @@
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>Expected one of }, found ONBOARD in line 1</t>
+          <t>Expected one of PINT, FLEET, DOFFY, BULL, LOYAL, IDENTIFIER, THEO, HELM, FOUR, WHALE, LOAD, FIRE, LEN, LEAK, SAIL, PASS, }, HOME, found ONBOARD in line 1</t>
         </is>
       </c>
     </row>
@@ -4977,7 +4977,7 @@
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>Expected one of }, found CAPTAIN in line 1</t>
+          <t>Expected one of PINT, FLEET, DOFFY, BULL, LOYAL, IDENTIFIER, THEO, HELM, FOUR, WHALE, LOAD, FIRE, LEN, LEAK, SAIL, PASS, }, HOME, found CAPTAIN in line 1</t>
         </is>
       </c>
     </row>
@@ -5004,7 +5004,7 @@
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>Expected one of OFFBOARD, PINT, FLEET, DOFFY, BULL, LOYAL, VOID, found CAPTAIN in line 1</t>
+          <t>Expected one of OFFBOARD, found CAPTAIN in line 1</t>
         </is>
       </c>
     </row>
@@ -5220,7 +5220,7 @@
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>Lexical Error: } (line 1)</t>
+          <t>Expected one of ;, found } in line 1</t>
         </is>
       </c>
     </row>
@@ -5237,17 +5237,17 @@
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>Syntax Error</t>
-        </is>
-      </c>
-      <c r="D178" s="3" t="inlineStr">
-        <is>
-          <t>Fail</t>
+          <t>No Syntax Error</t>
+        </is>
+      </c>
+      <c r="D178" s="2" t="inlineStr">
+        <is>
+          <t>Pass</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>Lexical Error: } (line 1)</t>
+          <t>Syntax analysis successful</t>
         </is>
       </c>
     </row>
@@ -5274,7 +5274,7 @@
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>Lexical Error: ( (line 1)</t>
+          <t>Expected one of ,, ;, found THEO in line 1</t>
         </is>
       </c>
     </row>
@@ -5301,7 +5301,7 @@
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>Lexical Error: } (line 1)</t>
+          <t>Expected one of }, found ALTHEO in line 1</t>
         </is>
       </c>
     </row>
@@ -5345,17 +5345,17 @@
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>Syntax Error</t>
-        </is>
-      </c>
-      <c r="D182" s="3" t="inlineStr">
-        <is>
-          <t>Fail</t>
+          <t>No Syntax Error</t>
+        </is>
+      </c>
+      <c r="D182" s="2" t="inlineStr">
+        <is>
+          <t>Pass</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>Lexical Error: } (line 1)</t>
+          <t>Syntax analysis successful</t>
         </is>
       </c>
     </row>
@@ -5426,17 +5426,17 @@
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>Syntax Error</t>
-        </is>
-      </c>
-      <c r="D185" s="3" t="inlineStr">
-        <is>
-          <t>Fail</t>
+          <t>No Syntax Error</t>
+        </is>
+      </c>
+      <c r="D185" s="2" t="inlineStr">
+        <is>
+          <t>Pass</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>Lexical Error: ( (line 1)</t>
+          <t>Syntax analysis successful</t>
         </is>
       </c>
     </row>
@@ -5463,7 +5463,7 @@
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>Expected one of ,, ;, +, -, *, DIV, %, **, //, :, ], found = in line 1</t>
+          <t>Expected one of ), found ; in line 1</t>
         </is>
       </c>
     </row>
@@ -5490,7 +5490,7 @@
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>Expected one of &lt;, &gt;, &lt;=, &gt;=, =, !=, found ) in line 1</t>
+          <t>Expected one of +, -, *, DIV, %, **, //, AND, ORO, &lt;, &gt;, &lt;=, &gt;=, ==, !=, found ) in line 1</t>
         </is>
       </c>
     </row>
@@ -5517,7 +5517,7 @@
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>Expected one of &lt;, &gt;, &lt;=, &gt;=, =, !=, found ) in line 1</t>
+          <t>Expected one of [, (, +, -, *, DIV, %, **, //, AND, ORO, &lt;, &gt;, &lt;=, &gt;=, ==, !=, found ) in line 1</t>
         </is>
       </c>
     </row>
@@ -5534,17 +5534,17 @@
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>Syntax Error</t>
-        </is>
-      </c>
-      <c r="D189" s="3" t="inlineStr">
-        <is>
-          <t>Fail</t>
+          <t>No Syntax Error</t>
+        </is>
+      </c>
+      <c r="D189" s="2" t="inlineStr">
+        <is>
+          <t>Pass</t>
         </is>
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>Lexical Error: } (line 1)</t>
+          <t>Syntax analysis successful</t>
         </is>
       </c>
     </row>
@@ -5561,17 +5561,17 @@
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>Syntax Error</t>
-        </is>
-      </c>
-      <c r="D190" s="3" t="inlineStr">
-        <is>
-          <t>Fail</t>
+          <t>No Syntax Error</t>
+        </is>
+      </c>
+      <c r="D190" s="2" t="inlineStr">
+        <is>
+          <t>Pass</t>
         </is>
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>Lexical Error: } (line 1)</t>
+          <t>Syntax analysis successful</t>
         </is>
       </c>
     </row>
@@ -5733,7 +5733,7 @@
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>Expected one of ,, ;, +, -, *, DIV, %, **, //, :, ], found FLEET in line 1</t>
+          <t>Expected one of ,, ;, +, -, *, DIV, %, **, //, found FLEET in line 1</t>
         </is>
       </c>
     </row>
@@ -5760,7 +5760,7 @@
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>Expected one of ,, ;, +, -, *, DIV, %, **, //, :, ], found FLEET in line 1</t>
+          <t>Expected one of ,, ;, +, -, *, DIV, %, **, //, found FLEET in line 1</t>
         </is>
       </c>
     </row>
@@ -6042,12 +6042,12 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>Syntax Error</t>
+          <t>No Syntax Error</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>Syntax Error</t>
+          <t>No Syntax Error</t>
         </is>
       </c>
       <c r="D208" s="2" t="inlineStr">
@@ -6057,7 +6057,7 @@
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>Expected one of ), found + in line 1</t>
+          <t>Syntax analysis successful</t>
         </is>
       </c>
     </row>
@@ -6084,7 +6084,7 @@
       </c>
       <c r="E209" t="inlineStr">
         <is>
-          <t>Expected one of (, USOPP, REAL, DOFFY LIT, [, PINT LIT, FLEET LIT, IDENTIFIER, LEN, LOAD, found PINT in line 1</t>
+          <t>Expected one of PINT LIT, FLEET LIT, DOFFY LIT, REAL, USOPP, IDENTIFIER, (, LEN, LOAD, [, found PINT in line 1</t>
         </is>
       </c>
     </row>
@@ -6246,7 +6246,7 @@
       </c>
       <c r="E215" t="inlineStr">
         <is>
-          <t>Expected one of ++, --, found IDENTIFIER in line 1</t>
+          <t>Expected one of =, found IDENTIFIER in line 1</t>
         </is>
       </c>
     </row>
@@ -6327,7 +6327,7 @@
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>Expected one of ++, --, found IDENTIFIER in line 1</t>
+          <t>Expected one of =, found IDENTIFIER in line 1</t>
         </is>
       </c>
     </row>
@@ -6408,7 +6408,7 @@
       </c>
       <c r="E221" t="inlineStr">
         <is>
-          <t>Expected one of }, found ( in line 1</t>
+          <t>Expected one of PINT, FLEET, DOFFY, BULL, LOYAL, IDENTIFIER, THEO, HELM, FOUR, WHALE, LOAD, FIRE, LEN, LEAK, SAIL, PASS, }, HOME, found ( in line 1</t>
         </is>
       </c>
     </row>
@@ -6543,7 +6543,7 @@
       </c>
       <c r="E226" t="inlineStr">
         <is>
-          <t>Expected one of CHEST, DAGGER, found ; in line 1</t>
+          <t>Expected one of PINT, FLEET, DOFFY, BULL, LOYAL, IDENTIFIER, THEO, HELM, FOUR, WHALE, LOAD, FIRE, LEN, LEAK, SAIL, PASS, }, HOME, found ; in line 1</t>
         </is>
       </c>
     </row>
@@ -6597,7 +6597,7 @@
       </c>
       <c r="E228" t="inlineStr">
         <is>
-          <t>Expected one of ONBOARD, found CAPTAIN in line 1</t>
+          <t>Expected one of CAPTAIN, PINT, FLEET, DOFFY, BULL, LOYAL, found OFFBOARD in line 1</t>
         </is>
       </c>
     </row>
@@ -6624,7 +6624,7 @@
       </c>
       <c r="E229" t="inlineStr">
         <is>
-          <t>Expected one of (, found = in line 1</t>
+          <t>Expected one of OFFBOARD, found PINT in line 1</t>
         </is>
       </c>
     </row>
@@ -6705,7 +6705,7 @@
       </c>
       <c r="E232" t="inlineStr">
         <is>
-          <t>Expected one of DOFFY LIT, (, IDENTIFIER, PINT LIT, FLEET LIT, LEN, NAY, found ) in line 1</t>
+          <t>Expected one of IDENTIFIER, PINT LIT, FLEET LIT, DOFFY LIT, NAY, (, LEN, LOAD, [, REAL, USOPP, found ) in line 1</t>
         </is>
       </c>
     </row>
@@ -7029,7 +7029,7 @@
       </c>
       <c r="E244" t="inlineStr">
         <is>
-          <t>Expected one of ,, ;, found } in line 1</t>
+          <t>Expected one of ,, ;, +, -, *, DIV, %, **, //, found } in line 1</t>
         </is>
       </c>
     </row>
@@ -7110,7 +7110,7 @@
       </c>
       <c r="E247" t="inlineStr">
         <is>
-          <t>Expected one of ++, --, found ; in line 1</t>
+          <t>Expected one of =, found ; in line 1</t>
         </is>
       </c>
     </row>
@@ -7225,12 +7225,12 @@
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>onboard         captain() {         # I want         multi-line comment         } offboard</t>
+          <t>onboard         captain() {         # I want         multi-line comment         SYNTAX ERROR dapat, pero sa autotester cinocompile to one line         } offboard</t>
         </is>
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>Syntax Error</t>
+          <t>No Syntax Error</t>
         </is>
       </c>
       <c r="C252" t="inlineStr">
@@ -7238,9 +7238,9 @@
           <t>No Syntax Error</t>
         </is>
       </c>
-      <c r="D252" s="3" t="inlineStr">
-        <is>
-          <t>Fail</t>
+      <c r="D252" s="2" t="inlineStr">
+        <is>
+          <t>Pass</t>
         </is>
       </c>
       <c r="E252" t="inlineStr">
@@ -7279,7 +7279,7 @@
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t xml:space="preserve">onboard         captain(){         pint x = 10;         pint y = 15;         }         pint z(pint a){                 fire("Hello");         } offboard </t>
+          <t xml:space="preserve">onboard pint z(pint a){                  fire("Hello");          }         captain(){         pint x = 10;         pint y = 15;         }          offboard </t>
         </is>
       </c>
       <c r="B254" t="inlineStr">
@@ -7338,12 +7338,12 @@
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>No Syntax Error</t>
+          <t>Syntax Error</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>No Syntax Error</t>
+          <t>Syntax Error</t>
         </is>
       </c>
       <c r="D256" s="2" t="inlineStr">
@@ -7353,7 +7353,7 @@
       </c>
       <c r="E256" t="inlineStr">
         <is>
-          <t>Syntax analysis successful</t>
+          <t>Expected one of ;, found , in line 1</t>
         </is>
       </c>
     </row>
@@ -7370,24 +7370,24 @@
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>Syntax Error</t>
-        </is>
-      </c>
-      <c r="D257" s="3" t="inlineStr">
-        <is>
-          <t>Fail</t>
+          <t>No Syntax Error</t>
+        </is>
+      </c>
+      <c r="D257" s="2" t="inlineStr">
+        <is>
+          <t>Pass</t>
         </is>
       </c>
       <c r="E257" t="inlineStr">
         <is>
-          <t>Expected one of ,, ;, found + in line 1</t>
+          <t>Syntax analysis successful</t>
         </is>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>onboard    captain(){       pint sum = sumTwo(1,2); }  pint sumTwo(pint a, pint b){      home(1 + 2); } offboard</t>
+          <t>onboard  pint sumTwo(pint a, pint b){       home(1 + 2);  }    captain(){       pint sum = sumTwo(1,2); }   offboard</t>
         </is>
       </c>
       <c r="B258" t="inlineStr">
@@ -7441,7 +7441,7 @@
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>onboard    captain(){        fire(isOdd(4)); }     bull isOdd(pint a){       theo(a % 2 == 0){        home(real); } alt {        home(usopp); } } offboard</t>
+          <t>onboard     bull isOdd(pint a){       theo(a % 2 == 0){        home(real); } alt {        home(usopp); } }     captain(){      pint n = load("enter number: ");      bull odd = isOdd(n);      fire(odd); } offboard</t>
         </is>
       </c>
       <c r="B260" t="inlineStr">
@@ -7451,24 +7451,24 @@
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>Syntax Error</t>
-        </is>
-      </c>
-      <c r="D260" s="3" t="inlineStr">
-        <is>
-          <t>Fail</t>
+          <t>No Syntax Error</t>
+        </is>
+      </c>
+      <c r="D260" s="2" t="inlineStr">
+        <is>
+          <t>Pass</t>
         </is>
       </c>
       <c r="E260" t="inlineStr">
         <is>
-          <t>Lexical Error: usopp (line 1)</t>
+          <t>Syntax analysis successful</t>
         </is>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>onboard     captain(){      doffy str = load("enter a string: ");      fire(len(str)); } offboard</t>
+          <t>onboard loyal doffy name = "John"; captain(){     fire(len(name)); }  offboard</t>
         </is>
       </c>
       <c r="B261" t="inlineStr">
@@ -7495,7 +7495,7 @@
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>onboard    loyal target_year = 100;    captain(){       pint current_age = load("how old are you: ");       pint years_til_100 = target_year - current_age;       fire(years_til_100); } offboard</t>
+          <t>onboard    loyal pint target_year = 100;    captain(){       pint current_age = load("how old are you: ");       pint years_til_100 = target_year - current_age;       fire(years_til_100); } offboard</t>
         </is>
       </c>
       <c r="B262" t="inlineStr">
@@ -7505,24 +7505,24 @@
       </c>
       <c r="C262" t="inlineStr">
         <is>
-          <t>Syntax Error</t>
-        </is>
-      </c>
-      <c r="D262" s="3" t="inlineStr">
-        <is>
-          <t>Fail</t>
+          <t>No Syntax Error</t>
+        </is>
+      </c>
+      <c r="D262" s="2" t="inlineStr">
+        <is>
+          <t>Pass</t>
         </is>
       </c>
       <c r="E262" t="inlineStr">
         <is>
-          <t>Expected one of PINT, FLEET, DOFFY, BULL, found IDENTIFIER in line 1</t>
+          <t>Syntax analysis successful</t>
         </is>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>onboard    doffy vowels = ["a", "e", "i", "o", "u"];    captain(){     doffy prompt = "enter sentence: ";     doffy str = load(prompt);     count_vowels(str); }  void count_vowels(doffy str){     pint vowelCount = 0;     for(int i = 0; i &lt; len(str); i++){        for(int j = 0; j &lt; len(vowels); j++){           theo(str[i] == vowels[j]){              vowelCount++;              leak;           }        }     }     fire(vowelCount); } offboard</t>
+          <t>onboard    doffy vowels = ["a", "e", "i", "o", "u"];     void count_vowels(doffy str){     pint vowelCount = 0;     for(int i = 0; i &lt; len(str); i++){        for(int j = 0; j &lt; len(vowels); j++){           theo(str[i] == vowels[j]){              vowelCount++;              leak;           }        }     }     fire(vowelCount); } captain(){     doffy prompt = "enter sentence: ";     doffy str = load(prompt);     count_vowels(str); } offboard</t>
         </is>
       </c>
       <c r="B263" t="inlineStr">
@@ -7542,7 +7542,7 @@
       </c>
       <c r="E263" t="inlineStr">
         <is>
-          <t>Expected one of +, -, *, DIV, %, **, //, found IDENTIFIER in line 1</t>
+          <t>Expected one of +, -, *, DIV, %, **, //, ;, found ] in line 1</t>
         </is>
       </c>
     </row>
@@ -7559,24 +7559,24 @@
       </c>
       <c r="C264" t="inlineStr">
         <is>
-          <t>Syntax Error</t>
-        </is>
-      </c>
-      <c r="D264" s="3" t="inlineStr">
-        <is>
-          <t>Fail</t>
+          <t>No Syntax Error</t>
+        </is>
+      </c>
+      <c r="D264" s="2" t="inlineStr">
+        <is>
+          <t>Pass</t>
         </is>
       </c>
       <c r="E264" t="inlineStr">
         <is>
-          <t>Lexical Error: ( (line 1)</t>
+          <t>Syntax analysis successful</t>
         </is>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>onboard    captain(){       while(real){          pint number = load("enter number: ");          theo(number &lt; 0){             leak;          }       } } offboard</t>
+          <t>onboard    captain(){       whale(real){          pint number = load("enter number: ");          theo(number &lt; 0){             leak;          }       } } offboard</t>
         </is>
       </c>
       <c r="B265" t="inlineStr">
@@ -7586,17 +7586,17 @@
       </c>
       <c r="C265" t="inlineStr">
         <is>
-          <t>Syntax Error</t>
-        </is>
-      </c>
-      <c r="D265" s="3" t="inlineStr">
-        <is>
-          <t>Fail</t>
+          <t>No Syntax Error</t>
+        </is>
+      </c>
+      <c r="D265" s="2" t="inlineStr">
+        <is>
+          <t>Pass</t>
         </is>
       </c>
       <c r="E265" t="inlineStr">
         <is>
-          <t>Expected one of ;, found { in line 1</t>
+          <t>Syntax analysis successful</t>
         </is>
       </c>
     </row>

--- a/results.xlsx
+++ b/results.xlsx
@@ -29,7 +29,7 @@
       <b val="1"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill/>
     </fill>
@@ -39,11 +39,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="0032a862"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00ff0000"/>
       </patternFill>
     </fill>
   </fills>
@@ -65,13 +60,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -437,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E266"/>
+  <dimension ref="A1:E271"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1521,7 +1515,7 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Expected one of =, found ( in line 1</t>
+          <t>Expected one of PINT LIT, FLEET LIT, DOFFY LIT, REAL, USOPP, IDENTIFIER, (, LEN, [, LOAD, ,, ), found PINT in line 1</t>
         </is>
       </c>
     </row>
@@ -1538,17 +1532,17 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Syntax Error</t>
-        </is>
-      </c>
-      <c r="D41" s="3" t="inlineStr">
-        <is>
-          <t>Fail</t>
+          <t>No Syntax Error</t>
+        </is>
+      </c>
+      <c r="D41" s="2" t="inlineStr">
+        <is>
+          <t>Pass</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Expected one of +, -, *, DIV, %, **, //, found ; in line 1</t>
+          <t>Syntax analysis successful</t>
         </is>
       </c>
     </row>
@@ -2564,17 +2558,17 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Syntax Error</t>
-        </is>
-      </c>
-      <c r="D79" s="3" t="inlineStr">
-        <is>
-          <t>Fail</t>
+          <t>No Syntax Error</t>
+        </is>
+      </c>
+      <c r="D79" s="2" t="inlineStr">
+        <is>
+          <t>Pass</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Expected one of }, found ; in line 1</t>
+          <t>Syntax analysis successful</t>
         </is>
       </c>
     </row>
@@ -2915,17 +2909,17 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Syntax Error</t>
-        </is>
-      </c>
-      <c r="D92" s="3" t="inlineStr">
-        <is>
-          <t>Fail</t>
+          <t>No Syntax Error</t>
+        </is>
+      </c>
+      <c r="D92" s="2" t="inlineStr">
+        <is>
+          <t>Pass</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>Expected one of +, -, *, DIV, %, **, //, ;, found ] in line 1</t>
+          <t>Syntax analysis successful</t>
         </is>
       </c>
     </row>
@@ -2969,17 +2963,17 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Syntax Error</t>
-        </is>
-      </c>
-      <c r="D94" s="3" t="inlineStr">
-        <is>
-          <t>Fail</t>
+          <t>No Syntax Error</t>
+        </is>
+      </c>
+      <c r="D94" s="2" t="inlineStr">
+        <is>
+          <t>Pass</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>Expected one of +, -, *, DIV, %, **, //, ;, found ] in line 1</t>
+          <t>Syntax analysis successful</t>
         </is>
       </c>
     </row>
@@ -3558,7 +3552,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>No Syntax Error</t>
+          <t>Syntax Error</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -3566,14 +3560,14 @@
           <t>Syntax Error</t>
         </is>
       </c>
-      <c r="D116" s="3" t="inlineStr">
-        <is>
-          <t>Fail</t>
+      <c r="D116" s="2" t="inlineStr">
+        <is>
+          <t>Pass</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>Expected one of =, found ( in line 1</t>
+          <t>Expected one of OFFBOARD, found DOFFY in line 1</t>
         </is>
       </c>
     </row>
@@ -4643,17 +4637,17 @@
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>Syntax Error</t>
-        </is>
-      </c>
-      <c r="D156" s="3" t="inlineStr">
-        <is>
-          <t>Fail</t>
+          <t>No Syntax Error</t>
+        </is>
+      </c>
+      <c r="D156" s="2" t="inlineStr">
+        <is>
+          <t>Pass</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>Expected one of }, found ; in line 1</t>
+          <t>Syntax analysis successful</t>
         </is>
       </c>
     </row>
@@ -6246,7 +6240,7 @@
       </c>
       <c r="E215" t="inlineStr">
         <is>
-          <t>Expected one of =, found IDENTIFIER in line 1</t>
+          <t>Expected one of =, (, found IDENTIFIER in line 1</t>
         </is>
       </c>
     </row>
@@ -6327,7 +6321,7 @@
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>Expected one of =, found IDENTIFIER in line 1</t>
+          <t>Expected one of =, (, found IDENTIFIER in line 1</t>
         </is>
       </c>
     </row>
@@ -7110,7 +7104,7 @@
       </c>
       <c r="E247" t="inlineStr">
         <is>
-          <t>Expected one of =, found ; in line 1</t>
+          <t>Expected one of =, (, found IDENTIFIER in line 1</t>
         </is>
       </c>
     </row>
@@ -7522,7 +7516,7 @@
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>onboard    doffy vowels = ["a", "e", "i", "o", "u"];     void count_vowels(doffy str){     pint vowelCount = 0;     for(int i = 0; i &lt; len(str); i++){        for(int j = 0; j &lt; len(vowels); j++){           theo(str[i] == vowels[j]){              vowelCount++;              leak;           }        }     }     fire(vowelCount); } captain(){     doffy prompt = "enter sentence: ";     doffy str = load(prompt);     count_vowels(str); } offboard</t>
+          <t>onboard    doffy vowels = ["a", "e", "i", "o", "u"];     void count_vowels(doffy str){     pint vowelCount = 0;     four(pint i = 0; i &lt; len(str); i++){        four(pint j = 0; j &lt; len(vowels); j++){           theo(str[i] == vowels[j]){              vowelCount++;              leak;           }        }     }     fire(vowelCount); } captain(){     doffy prompt = "enter sentence: ";     doffy str = load(prompt);     count_vowels(str); } offboard</t>
         </is>
       </c>
       <c r="B263" t="inlineStr">
@@ -7532,17 +7526,17 @@
       </c>
       <c r="C263" t="inlineStr">
         <is>
-          <t>Syntax Error</t>
-        </is>
-      </c>
-      <c r="D263" s="3" t="inlineStr">
-        <is>
-          <t>Fail</t>
+          <t>No Syntax Error</t>
+        </is>
+      </c>
+      <c r="D263" s="2" t="inlineStr">
+        <is>
+          <t>Pass</t>
         </is>
       </c>
       <c r="E263" t="inlineStr">
         <is>
-          <t>Expected one of +, -, *, DIV, %, **, //, ;, found ] in line 1</t>
+          <t>Syntax analysis successful</t>
         </is>
       </c>
     </row>
@@ -7603,7 +7597,7 @@
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>onboard    captain(){      pint n = load("enter a number: ");       } offboard</t>
+          <t>onboard    captain(){      four(pint i = 1; i &lt;= 20; i++){       theo(i % 2 == 0){         fire(i); } }       } offboard</t>
         </is>
       </c>
       <c r="B266" t="inlineStr">
@@ -7622,6 +7616,141 @@
         </is>
       </c>
       <c r="E266" t="inlineStr">
+        <is>
+          <t>Syntax analysis successful</t>
+        </is>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>onboard    captain(){     pint n = load("enter number to factorial");     pint factorial = 1;      four(pint i = n; i &gt; 0; i--){             factorial = factorial * i;  }     fire(factorial);  }    offboard</t>
+        </is>
+      </c>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>No Syntax Error</t>
+        </is>
+      </c>
+      <c r="C267" t="inlineStr">
+        <is>
+          <t>No Syntax Error</t>
+        </is>
+      </c>
+      <c r="D267" s="2" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="E267" t="inlineStr">
+        <is>
+          <t>Syntax analysis successful</t>
+        </is>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>onboard  pint arr = [1,2,3,4,5];  captain(){    pint sum = 0;    four(pint i = 0; i &lt; len(arr); i++){       sum = sum + arr[i]; }    fire(sum); }  offboard</t>
+        </is>
+      </c>
+      <c r="B268" t="inlineStr">
+        <is>
+          <t>No Syntax Error</t>
+        </is>
+      </c>
+      <c r="C268" t="inlineStr">
+        <is>
+          <t>No Syntax Error</t>
+        </is>
+      </c>
+      <c r="D268" s="2" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="E268" t="inlineStr">
+        <is>
+          <t>Syntax analysis successful</t>
+        </is>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>onboard pint arr = [1,5,3,2,6,2]; captain(){    pint max = 0;    four(pint i = 0; i &lt; len(arr); i++){      theo(arr[i] &gt; max){        max = arr[i]; } }    fire(max); }  offboard</t>
+        </is>
+      </c>
+      <c r="B269" t="inlineStr">
+        <is>
+          <t>No Syntax Error</t>
+        </is>
+      </c>
+      <c r="C269" t="inlineStr">
+        <is>
+          <t>No Syntax Error</t>
+        </is>
+      </c>
+      <c r="D269" s="2" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="E269" t="inlineStr">
+        <is>
+          <t>Syntax analysis successful</t>
+        </is>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t xml:space="preserve">onboard     doffy vowels = ["a", "e", "i", "o", "u"];        void count_vowels(doffy str){      pint vowelCount = 0;      four(pint i = 0; i &lt; len(str); i++){         four(pint j = 0; j &lt; len(vowels); j++){            theo(str[i] == vowels[j]){               vowelCount++;               leak;            }         }      }      fire(vowelCount);  }  captain(){      doffy prompt = "enter sentence: ";      doffy str = load(prompt);      count_vowels(str);  }    offboard    </t>
+        </is>
+      </c>
+      <c r="B270" t="inlineStr">
+        <is>
+          <t>No Syntax Error</t>
+        </is>
+      </c>
+      <c r="C270" t="inlineStr">
+        <is>
+          <t>No Syntax Error</t>
+        </is>
+      </c>
+      <c r="D270" s="2" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="E270" t="inlineStr">
+        <is>
+          <t>Syntax analysis successful</t>
+        </is>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>onboard  pint arr = [1,2,3] + [4]; pint arr2 = arr + [5];  captain(){    fire(arr2); }  offboard</t>
+        </is>
+      </c>
+      <c r="B271" t="inlineStr">
+        <is>
+          <t>No Syntax Error</t>
+        </is>
+      </c>
+      <c r="C271" t="inlineStr">
+        <is>
+          <t>No Syntax Error</t>
+        </is>
+      </c>
+      <c r="D271" s="2" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="E271" t="inlineStr">
         <is>
           <t>Syntax analysis successful</t>
         </is>
